--- a/Stocks/PNB.xlsx
+++ b/Stocks/PNB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>171.70000000000002</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>159.1964922259607</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>155.71036838624741</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>48.438505805078016</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>4.8499999999999943</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.10309278350515476</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>154.66093383630766</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>2.824845580106853</v>
       </c>
       <c r="Y67">
         <v>2.5481987444056036</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="D83">
+        <v>145.94999999999999</v>
+      </c>
+      <c r="E83">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="F83">
+        <v>144.9</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>144.93333333333331</v>
+      </c>
+      <c r="H83">
+        <v>143.40926533750752</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>145.41252047479909</v>
+      </c>
+      <c r="K83">
+        <v>140.88673682627208</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>56.130725866715714</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.95000000000001705</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.47500000000000853</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>144.41725837405289</v>
+      </c>
+      <c r="W83">
+        <v>147.20856300476109</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.791304630708197</v>
+      </c>
+      <c r="Y83">
+        <v>-2.3983056776648475</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>143.25</v>
+      </c>
+      <c r="D84">
+        <v>145.4</v>
+      </c>
+      <c r="E84">
+        <v>140.25</v>
+      </c>
+      <c r="F84">
+        <v>141</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>142.21666666666667</v>
+      </c>
+      <c r="H84">
+        <v>142.81296600208708</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>145.40973814706595</v>
+      </c>
+      <c r="K84">
+        <v>140.74523975376718</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>40.687072269284144</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.1500000000000057</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.1456310679611649</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>143.89152631650629</v>
+      </c>
+      <c r="W84">
+        <v>146.74866944885287</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.8571431323465788</v>
+      </c>
+      <c r="Y84">
+        <v>-2.4900731686011937</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>142.25</v>
+      </c>
+      <c r="D85">
+        <v>143.35</v>
+      </c>
+      <c r="E85">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F85">
+        <v>143.05000000000001</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>142.56666666666666</v>
+      </c>
+      <c r="H85">
+        <v>142.68981633437687</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>144.95201855882908</v>
+      </c>
+      <c r="K85">
+        <v>140.86851980848559</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>49.767980716299959</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>2.0499999999999829</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.85365853658537294</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>143.76206072935148</v>
+      </c>
+      <c r="W85">
+        <v>146.47469393412302</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.7126332047715493</v>
+      </c>
+      <c r="Y85">
+        <v>-2.5345851758352649</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>142.6</v>
+      </c>
+      <c r="D86">
+        <v>145</v>
+      </c>
+      <c r="E86">
+        <v>141.4</v>
+      </c>
+      <c r="F86">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>143.4</v>
+      </c>
+      <c r="H86">
+        <v>143.04490816718845</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>144.96268110131152</v>
+      </c>
+      <c r="K86">
+        <v>140.98662651771102</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>53.054889956422855</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666929</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>143.76789754022047</v>
+      </c>
+      <c r="W86">
+        <v>146.27656845752131</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-2.508670917300833</v>
+      </c>
+      <c r="Y86">
+        <v>-2.5294023241283785</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>144.1</v>
+      </c>
+      <c r="D87">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="E87">
+        <v>143.9</v>
+      </c>
+      <c r="F87">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>144.66666666666669</v>
+      </c>
+      <c r="H87">
+        <v>143.85578741692757</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>145.14875196768674</v>
+      </c>
+      <c r="K87">
+        <v>141.63404284710856</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>55.482381644140396</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.21052631578947606</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>143.84975945710963</v>
+      </c>
+      <c r="W87">
+        <v>146.13015597918638</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-2.2803965220767566</v>
+      </c>
+      <c r="Y87">
+        <v>-2.4796011637180539</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>144.5</v>
+      </c>
+      <c r="D88">
+        <v>145.4</v>
+      </c>
+      <c r="E88">
+        <v>141.6</v>
+      </c>
+      <c r="F88">
+        <v>142.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>143.16666666666666</v>
+      </c>
+      <c r="H88">
+        <v>143.5112270417971</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>145.20458486375634</v>
+      </c>
+      <c r="K88">
+        <v>141.62647776997332</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>45.009149884445499</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.23684210526315869</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>143.64210415601585</v>
+      </c>
+      <c r="W88">
+        <v>145.86125553628369</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-2.2191513802678458</v>
+      </c>
+      <c r="Y88">
+        <v>-2.4275112070280125</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="D89">
+        <v>143.9</v>
+      </c>
+      <c r="E89">
+        <v>142.4</v>
+      </c>
+      <c r="F89">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>143.28333333333333</v>
+      </c>
+      <c r="H89">
+        <v>143.39728018756523</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>144.91467711625492</v>
+      </c>
+      <c r="K89">
+        <v>141.79837159886813</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>51.662449272804459</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.76666666666667049</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>143.62793428585957</v>
+      </c>
+      <c r="W89">
+        <v>145.69005142248491</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2.0621171366253463</v>
+      </c>
+      <c r="Y89">
+        <v>-2.3544323929474791</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>142.25</v>
+      </c>
+      <c r="D90">
+        <v>142.6</v>
+      </c>
+      <c r="E90">
+        <v>138.35</v>
+      </c>
+      <c r="F90">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>139.88333333333333</v>
+      </c>
+      <c r="H90">
+        <v>141.64030676044928</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>144.40030442375382</v>
+      </c>
+      <c r="K90">
+        <v>141.03206679911966</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>30.415284998574023</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>8.2352941176469255E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>142.86979054957348</v>
+      </c>
+      <c r="W90">
+        <v>145.17226983563418</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-2.3024792860607022</v>
+      </c>
+      <c r="Y90">
+        <v>-2.3440417715701236</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>140.4</v>
+      </c>
+      <c r="D91">
+        <v>140.4</v>
+      </c>
+      <c r="E91">
+        <v>137.55000000000001</v>
+      </c>
+      <c r="F91">
+        <v>139</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>138.98333333333335</v>
+      </c>
+      <c r="H91">
+        <v>140.31182004689131</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>143.51134788514187</v>
+      </c>
+      <c r="K91">
+        <v>140.25827417709309</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>32.559825239856316</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>2.8499999999999943</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.50877192982455843</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>142.27443815733142</v>
+      </c>
+      <c r="W91">
+        <v>144.71506466262423</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-2.440626505292812</v>
+      </c>
+      <c r="Y91">
+        <v>-2.3633587183146614</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>139.4</v>
+      </c>
+      <c r="D92">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="E92">
+        <v>137.1</v>
+      </c>
+      <c r="F92">
+        <v>137.75</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>138.21666666666667</v>
+      </c>
+      <c r="H92">
+        <v>139.26424335677899</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>142.68660391066589</v>
+      </c>
+      <c r="K92">
+        <v>139.5564354710724</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>28.056327573993258</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>2.7000000000000171</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.24074074074074134</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>141.57837074851119</v>
+      </c>
+      <c r="W92">
+        <v>144.1991339468743</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-2.6207631983631074</v>
+      </c>
+      <c r="Y92">
+        <v>-2.4148396143243507</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>138.9</v>
+      </c>
+      <c r="D93">
+        <v>139.5</v>
+      </c>
+      <c r="E93">
+        <v>137.75</v>
+      </c>
+      <c r="F93">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>138.51666666666668</v>
+      </c>
+      <c r="H93">
+        <v>138.89045501172285</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>141.97846970829571</v>
+      </c>
+      <c r="K93">
+        <v>139.15500536638964</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>33.142387033666687</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>1.75</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.31428571428572077</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>141.07400601797102</v>
+      </c>
+      <c r="W93">
+        <v>143.76216106192064</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-2.6881550439496209</v>
+      </c>
+      <c r="Y93">
+        <v>-2.4695027002494045</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>139.4</v>
+      </c>
+      <c r="D94">
+        <v>142</v>
+      </c>
+      <c r="E94">
+        <v>138</v>
+      </c>
+      <c r="F94">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>140.56666666666666</v>
+      </c>
+      <c r="H94">
+        <v>139.72856083919476</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>141.98325421756331</v>
+      </c>
+      <c r="K94">
+        <v>138.89833750719194</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>56.762277543817362</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.92499999999999716</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>141.17031278443702</v>
+      </c>
+      <c r="W94">
+        <v>143.60940839066726</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-2.4390956062302394</v>
+      </c>
+      <c r="Y94">
+        <v>-2.4634212814455716</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="D95">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="E95">
+        <v>141.15</v>
+      </c>
+      <c r="F95">
+        <v>143.35</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>143.10000000000002</v>
+      </c>
+      <c r="H95">
+        <v>141.41428041959739</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>142.60919772477146</v>
+      </c>
+      <c r="K95">
+        <v>139.39870695003819</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>64.393170456882615</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.60273972602739323</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>141.50564927913902</v>
+      </c>
+      <c r="W95">
+        <v>143.59019295432154</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-2.0845436751825162</v>
+      </c>
+      <c r="Y95">
+        <v>-2.3876457601929606</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>143</v>
+      </c>
+      <c r="D96">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="E96">
+        <v>143</v>
+      </c>
+      <c r="F96">
+        <v>145.35</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>144.71666666666667</v>
+      </c>
+      <c r="H96">
+        <v>143.06547354313204</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>143.31826489704449</v>
+      </c>
+      <c r="K96">
+        <v>140.19899429447415</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>71.905708690889611</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.83928571428570886</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>142.09708785157918</v>
+      </c>
+      <c r="W96">
+        <v>143.7205490317792</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.6234611802000245</v>
+      </c>
+      <c r="Y96">
+        <v>-2.2348088441943732</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D97">
+        <v>146.4</v>
+      </c>
+      <c r="E97">
+        <v>143.6</v>
+      </c>
+      <c r="F97">
+        <v>144.05000000000001</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>144.68333333333334</v>
+      </c>
+      <c r="H97">
+        <v>143.87440343823269</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>144.00309491992348</v>
+      </c>
+      <c r="K97">
+        <v>140.95477334014655</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>61.383055392741447</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.45000000000001705</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.16071428571429114</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>142.39753587441314</v>
+      </c>
+      <c r="W97">
+        <v>143.74495280720296</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.3474169327898267</v>
+      </c>
+      <c r="Y97">
+        <v>-2.0573304619134638</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>146</v>
+      </c>
+      <c r="D98">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="E98">
+        <v>144.5</v>
+      </c>
+      <c r="F98">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>145.5</v>
+      </c>
+      <c r="H98">
+        <v>144.68720171911633</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>144.73574049327382</v>
+      </c>
+      <c r="K98">
+        <v>141.74260148678064</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>64.619074633888388</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>7.1428571428567081E-2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>142.75176112450342</v>
+      </c>
+      <c r="W98">
+        <v>143.81569704370645</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.0639359192030327</v>
+      </c>
+      <c r="Y98">
+        <v>-1.8586515533713777</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>145.5</v>
+      </c>
+      <c r="D99">
+        <v>145.5</v>
+      </c>
+      <c r="E99">
+        <v>141.9</v>
+      </c>
+      <c r="F99">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>143.73333333333332</v>
+      </c>
+      <c r="H99">
+        <v>144.21026752622481</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>144.90557593921298</v>
+      </c>
+      <c r="K99">
+        <v>141.77757893416273</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.434155675269103</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.52777777777778023</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>142.91302864381058</v>
+      </c>
+      <c r="W99">
+        <v>143.81453429972819</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.90150565591761733</v>
+      </c>
+      <c r="Y99">
+        <v>-1.6672223738806256</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <v>146.44999999999999</v>
+      </c>
+      <c r="E100">
+        <v>142.75</v>
+      </c>
+      <c r="F100">
+        <v>144.85</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>144.68333333333331</v>
+      </c>
+      <c r="H100">
+        <v>144.44680042977905</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>145.24878128605454</v>
+      </c>
+      <c r="K100">
+        <v>141.99367250434878</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>63.226839617690068</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.56756756756756777</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>143.21102423707049</v>
+      </c>
+      <c r="W100">
+        <v>143.89123546271128</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-0.68021122564078951</v>
+      </c>
+      <c r="Y100">
+        <v>-1.4698201442326584</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D101">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="E101">
+        <v>141.35</v>
+      </c>
+      <c r="F101">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>142.94999999999999</v>
+      </c>
+      <c r="H101">
+        <v>143.69840021488952</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>145.34905211137576</v>
+      </c>
+      <c r="K101">
+        <v>141.85063417004906</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>40.371398096339924</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0.45000000000001705</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.10344827586207302</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>142.99394358521349</v>
+      </c>
+      <c r="W101">
+        <v>143.73632913214007</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-0.74238554692658454</v>
+      </c>
+      <c r="Y101">
+        <v>-1.3243332247714437</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D102">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="E102">
+        <v>137.05000000000001</v>
+      </c>
+      <c r="F102">
+        <v>137.6</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>138.78333333333333</v>
+      </c>
+      <c r="H102">
+        <v>141.24086677411142</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>144.53815164218113</v>
+      </c>
+      <c r="K102">
+        <v>140.78382657670483</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>24.886432392864052</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.54999999999998295</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.11827956989247003</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>142.16410611056526</v>
+      </c>
+      <c r="W102">
+        <v>143.28178623346304</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-1.1176801228977808</v>
+      </c>
+      <c r="Y102">
+        <v>-1.2830026043967111</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>137.5</v>
+      </c>
+      <c r="D103">
+        <v>138.5</v>
+      </c>
+      <c r="E103">
+        <v>133.35</v>
+      </c>
+      <c r="F103">
+        <v>137.6</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>136.48333333333335</v>
+      </c>
+      <c r="H103">
+        <v>138.86210005372237</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>143.19634016614089</v>
+      </c>
+      <c r="K103">
+        <v>139.13186511521485</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>24.886432392864052</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>4.25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>5.1500000000000057</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.82524271844660102</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>141.46193593970906</v>
+      </c>
+      <c r="W103">
+        <v>142.86091317913244</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-1.3989772394233739</v>
+      </c>
+      <c r="Y103">
+        <v>-1.3061975314020438</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>137.5</v>
+      </c>
+      <c r="D104">
+        <v>138.25</v>
+      </c>
+      <c r="E104">
+        <v>135.5</v>
+      </c>
+      <c r="F104">
+        <v>136.35</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>136.70000000000002</v>
+      </c>
+      <c r="H104">
+        <v>137.78105002686118</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>142.09715346255402</v>
+      </c>
+      <c r="K104">
+        <v>138.32478397850045</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>21.119404211864381</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>2.75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.30909090909090703</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>140.6754842566769</v>
+      </c>
+      <c r="W104">
+        <v>142.37862331401152</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.7031390573346243</v>
+      </c>
+      <c r="Y104">
+        <v>-1.3855858365885598</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="D105">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="E105">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="F105">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>134.31666666666666</v>
+      </c>
+      <c r="H105">
+        <v>136.04885834676392</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>141.23111935976422</v>
+      </c>
+      <c r="K105">
+        <v>136.93038753883368</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>13.60351654800078</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>6.1499999999999773</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.10569105691056579</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>139.4484866787266</v>
+      </c>
+      <c r="W105">
+        <v>141.66168825371437</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-2.213201574987778</v>
+      </c>
+      <c r="Y105">
+        <v>-1.5511089842684034</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>137.5</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>135.85</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>135.15</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="D106">
+        <v>133.9</v>
+      </c>
+      <c r="E106">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="F106">
+        <v>130.75</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>131.61666666666667</v>
+      </c>
+      <c r="H106">
+        <v>133.83276250671531</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>139.60198172426107</v>
+      </c>
+      <c r="K106">
+        <v>135.4347458635373</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>10.991347318525731</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>3.7000000000000171</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.14864864864865104</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>138.11025795892252</v>
+      </c>
+      <c r="W106">
+        <v>140.85341504973553</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-2.7431570908130141</v>
+      </c>
+      <c r="Y106">
+        <v>-1.7895186055773256</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>133.5</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>132.5</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>132.05000000000001</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>131.9</v>
+      </c>
+      <c r="D107">
+        <v>132.75</v>
+      </c>
+      <c r="E107">
+        <v>128.4</v>
+      </c>
+      <c r="F107">
+        <v>129.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>130.21666666666667</v>
+      </c>
+      <c r="H107">
+        <v>132.024714586691</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>138.07931911886971</v>
+      </c>
+      <c r="K107">
+        <v>133.87146900497345</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>9.5256913521698081</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>4.3499999999999943</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.25287356321838983</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>136.78560288831906</v>
+      </c>
+      <c r="W107">
+        <v>140.01242134234772</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-3.2268184540286597</v>
+      </c>
+      <c r="Y107">
+        <v>-2.0769785752675922</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
